--- a/檢查JS用_H5.xlsx
+++ b/檢查JS用_H5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,14 +331,6 @@
   </si>
   <si>
     <t>結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1067,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G96"/>
+  <dimension ref="B1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1070,7 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1091,14 +1083,8 @@
       <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1106,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1117,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1128,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1139,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1150,10 +1136,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1161,315 +1147,315 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1502,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1524,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1535,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -1546,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -1601,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -1612,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1623,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -1656,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -1678,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1700,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -1711,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1744,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -1755,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -1766,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -1777,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -1799,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -1810,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1832,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -1854,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -1865,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -1876,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -1887,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1898,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -1909,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -1920,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -1931,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -1942,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -1953,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -1964,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -1975,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -1986,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -1997,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -2008,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -2019,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -2030,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -2041,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -2063,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -2074,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -2096,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -2107,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -2129,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -2140,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/檢查JS用_H5.xlsx
+++ b/檢查JS用_H5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="204">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,13 +730,29 @@
   </si>
   <si>
     <t>/lottery/CTBSC/CTXYFT</t>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1059,18 +1075,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E96"/>
+  <dimension ref="B1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1083,8 +1099,20 @@
       <c r="E1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1156,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1167,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1178,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1161,7 +1189,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1172,7 +1200,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1183,7 +1211,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1194,7 +1222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1205,7 +1233,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1216,7 +1244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1227,7 +1255,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1238,7 +1266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -1249,7 +1277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -1271,7 +1299,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>89</v>
       </c>
@@ -1282,7 +1310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>90</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -1304,7 +1332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -1315,7 +1343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -1326,7 +1354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1337,7 +1365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -1348,7 +1376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -1359,7 +1387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>98</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -1392,7 +1420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>100</v>
       </c>
@@ -1403,7 +1431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>101</v>
       </c>
@@ -1414,7 +1442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>102</v>
       </c>
@@ -1425,7 +1453,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>103</v>
       </c>
@@ -1436,7 +1464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>104</v>
       </c>
@@ -1447,7 +1475,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -1458,7 +1486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1508,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1530,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1552,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1563,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -1546,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +1585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -1568,7 +1596,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1607,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -1590,7 +1618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -1601,7 +1629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1623,7 +1651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -1634,7 +1662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1656,7 +1684,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>33</v>
       </c>
@@ -1667,7 +1695,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +1717,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1728,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -1711,7 +1739,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" t="s">
         <v>38</v>
       </c>
@@ -1722,7 +1750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="B60" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>40</v>
       </c>
@@ -1744,7 +1772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -1755,7 +1783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +1805,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>44</v>
       </c>
@@ -1788,7 +1816,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>45</v>
       </c>
@@ -1799,7 +1827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>46</v>
       </c>
@@ -1810,7 +1838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>48</v>
       </c>
@@ -1832,7 +1860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>49</v>
       </c>
@@ -1843,7 +1871,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>50</v>
       </c>
@@ -1854,7 +1882,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>51</v>
       </c>
@@ -1865,7 +1893,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +1904,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>53</v>
       </c>
@@ -1887,7 +1915,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>54</v>
       </c>
@@ -1898,7 +1926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>55</v>
       </c>
@@ -1909,7 +1937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>56</v>
       </c>
@@ -1920,7 +1948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>57</v>
       </c>
@@ -1931,7 +1959,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>58</v>
       </c>
@@ -1942,7 +1970,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>59</v>
       </c>
@@ -1953,7 +1981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>60</v>
       </c>
@@ -1964,7 +1992,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>61</v>
       </c>
@@ -1975,7 +2003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>62</v>
       </c>
@@ -1986,7 +2014,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>63</v>
       </c>
@@ -1997,7 +2025,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>64</v>
       </c>
@@ -2008,7 +2036,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>65</v>
       </c>
@@ -2019,7 +2047,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>66</v>
       </c>
@@ -2030,7 +2058,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2069,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>68</v>
       </c>
@@ -2052,7 +2080,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>69</v>
       </c>
@@ -2063,7 +2091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>70</v>
       </c>
@@ -2074,7 +2102,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>71</v>
       </c>
@@ -2085,7 +2113,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>72</v>
       </c>
@@ -2096,7 +2124,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>73</v>
       </c>
@@ -2107,7 +2135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>74</v>
       </c>
@@ -2118,7 +2146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>75</v>
       </c>

--- a/檢查JS用_H5.xlsx
+++ b/檢查JS用_H5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\統計碼檢查用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -528,9 +528,6 @@
     <t>/userCenter/manageInvite</t>
   </si>
   <si>
-    <t>/userCenter/promotionInvite</t>
-  </si>
-  <si>
     <t>/userCenter/agentMember</t>
   </si>
   <si>
@@ -546,213 +543,220 @@
     <t>/userCenter/Notice</t>
   </si>
   <si>
+    <t>/lottery/K3/AHK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/BJK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/CF1K3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/GSK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/GXK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/HEBK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/HUBK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/JLK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/JSK3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/K3MMC</t>
+  </si>
+  <si>
+    <t>/lottery/K3/OG1K3</t>
+  </si>
+  <si>
+    <t>/lottery/K3/SHK3</t>
+  </si>
+  <si>
+    <t>/lottery/SSC/CQSSC</t>
+  </si>
+  <si>
+    <t>/lottery/SSC/HLJSSC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/JLFFC</t>
+  </si>
+  <si>
+    <t>/lottery/SSC/JXSSC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/KORFFC</t>
+  </si>
+  <si>
+    <t>/lottery/MMC/OGMMC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/SLFKFFC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/TFFFC</t>
+  </si>
+  <si>
+    <t>/lottery/SSC/TJSSC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/TSFFC</t>
+  </si>
+  <si>
+    <t>/lottery/FFC/TWFFC</t>
+  </si>
+  <si>
+    <t>/lottery/SSC/XJSSC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/LHCMMC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/OG10LHC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/OG1LHC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/OG3LHC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/OG5LHC</t>
+  </si>
+  <si>
+    <t>/lottery/LHC/XGLHC</t>
+  </si>
+  <si>
+    <t>/lottery/KL8/BJKL8</t>
+  </si>
+  <si>
+    <t>/lottery/KL8/SLFKKL8</t>
+  </si>
+  <si>
+    <t>/lottery/KL8/TWBINGO</t>
+  </si>
+  <si>
+    <t>/lottery/QQC/QQFFC</t>
+  </si>
+  <si>
+    <t>/lottery/BSC/BJPK10</t>
+  </si>
+  <si>
+    <t>/lottery/BSC/JLPK10</t>
+  </si>
+  <si>
+    <t>/lottery/BSC/TSPK10</t>
+  </si>
+  <si>
+    <t>/lottery/BSC/TFPK10</t>
+  </si>
+  <si>
+    <t>/lottery/BSC/XYFT</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/CF111X5</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/GD11X5</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/JX11X5</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/OG111X5</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/SD11X5</t>
+  </si>
+  <si>
+    <t>/lottery/XX5/XJ11X5</t>
+  </si>
+  <si>
+    <t>/lottery/FC3D/FC3D</t>
+  </si>
+  <si>
+    <t>/lottery/PL3/PL3CP</t>
+  </si>
+  <si>
+    <t>/lottery/CTK3/CTOG1K3</t>
+  </si>
+  <si>
+    <t>/lottery/CTK3/CTBJK3</t>
+  </si>
+  <si>
+    <t>/lottery/CTK3/CTJLK3</t>
+  </si>
+  <si>
+    <t>/lottery/CTK3/CTJSK3</t>
+  </si>
+  <si>
+    <t>/lottery/CTSSC/CTOG1SSC</t>
+  </si>
+  <si>
+    <t>/lottery/CTSSC/CTCQSSC</t>
+  </si>
+  <si>
+    <t>/lottery/CTBSC/CTOG1BSC</t>
+  </si>
+  <si>
+    <t>/lottery/CTBSC/CTBJPK10</t>
+  </si>
+  <si>
+    <t>/lottery/CTBSC/CTXYFT</t>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roger4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userCenter/manageIcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/userCenter/noticeDetail?noticeId=440704</t>
-  </si>
-  <si>
-    <t>/withdraw</t>
-  </si>
-  <si>
-    <t>/payment/ebankPay</t>
-  </si>
-  <si>
-    <t>/payment/aliPayOffline?onlinePayType=5</t>
-  </si>
-  <si>
-    <t>/payment/wechatOffline?onlinePayType=3</t>
-  </si>
-  <si>
-    <t>/payment/qqPayOffline?onlinePayType=8</t>
-  </si>
-  <si>
-    <t>/lottery/K3/AHK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/BJK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/CF1K3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/GSK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/GXK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/HEBK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/HUBK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/JLK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/JSK3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/K3MMC</t>
-  </si>
-  <si>
-    <t>/lottery/K3/OG1K3</t>
-  </si>
-  <si>
-    <t>/lottery/K3/SHK3</t>
-  </si>
-  <si>
-    <t>/lottery/SSC/CQSSC</t>
-  </si>
-  <si>
-    <t>/lottery/SSC/HLJSSC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/JLFFC</t>
-  </si>
-  <si>
-    <t>/lottery/SSC/JXSSC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/KORFFC</t>
-  </si>
-  <si>
-    <t>/lottery/MMC/OGMMC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/SLFKFFC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/TFFFC</t>
-  </si>
-  <si>
-    <t>/lottery/SSC/TJSSC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/TSFFC</t>
-  </si>
-  <si>
-    <t>/lottery/FFC/TWFFC</t>
-  </si>
-  <si>
-    <t>/lottery/SSC/XJSSC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/LHCMMC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/OG10LHC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/OG1LHC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/OG3LHC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/OG5LHC</t>
-  </si>
-  <si>
-    <t>/lottery/LHC/XGLHC</t>
-  </si>
-  <si>
-    <t>/lottery/KL8/BJKL8</t>
-  </si>
-  <si>
-    <t>/lottery/KL8/SLFKKL8</t>
-  </si>
-  <si>
-    <t>/lottery/KL8/TWBINGO</t>
-  </si>
-  <si>
-    <t>/lottery/QQC/QQFFC</t>
-  </si>
-  <si>
-    <t>/lottery/BSC/BJPK10</t>
-  </si>
-  <si>
-    <t>/lottery/BSC/JLPK10</t>
-  </si>
-  <si>
-    <t>/lottery/BSC/TSPK10</t>
-  </si>
-  <si>
-    <t>/lottery/BSC/TFPK10</t>
-  </si>
-  <si>
-    <t>/lottery/BSC/XYFT</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/CF111X5</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/GD11X5</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/JX11X5</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/OG111X5</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/SD11X5</t>
-  </si>
-  <si>
-    <t>/lottery/XX5/XJ11X5</t>
-  </si>
-  <si>
-    <t>/lottery/FC3D/FC3D</t>
-  </si>
-  <si>
-    <t>/lottery/PL3/PL3CP</t>
-  </si>
-  <si>
-    <t>/lottery/CTK3/CTOG1K3</t>
-  </si>
-  <si>
-    <t>/lottery/CTK3/CTBJK3</t>
-  </si>
-  <si>
-    <t>/lottery/CTK3/CTJLK3</t>
-  </si>
-  <si>
-    <t>/lottery/CTK3/CTJSK3</t>
-  </si>
-  <si>
-    <t>/lottery/CTSSC/CTOG1SSC</t>
-  </si>
-  <si>
-    <t>/lottery/CTSSC/CTCQSSC</t>
-  </si>
-  <si>
-    <t>/lottery/CTBSC/CTOG1BSC</t>
-  </si>
-  <si>
-    <t>/lottery/CTBSC/CTBJPK10</t>
-  </si>
-  <si>
-    <t>/lottery/CTBSC/CTXYFT</t>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwe123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userCenter/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userCenter/normalPayBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userCenter/aliPayOffline?onlinePayType=7</t>
+  </si>
+  <si>
+    <t>/userCenter/wechatOffline?onlinePayType=6</t>
+  </si>
+  <si>
+    <t>/userCenter/qqPayOffline?onlinePayType=9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,15 +1082,18 @@
   <dimension ref="B1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1100,19 +1107,19 @@
         <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1266,7 +1273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>89</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>90</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>98</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -1417,10 +1424,10 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>100</v>
       </c>
@@ -1428,10 +1435,10 @@
         <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>101</v>
       </c>
@@ -1439,10 +1446,10 @@
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>102</v>
       </c>
@@ -1450,10 +1457,10 @@
         <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>103</v>
       </c>
@@ -1461,10 +1468,10 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>104</v>
       </c>
@@ -1472,10 +1479,10 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -1483,10 +1490,10 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1494,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>16</v>
       </c>
@@ -1505,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -1516,10 +1523,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1527,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1538,10 +1545,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1549,10 +1556,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -1560,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -1571,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1582,10 +1589,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -1593,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -1604,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -1615,10 +1622,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -1626,10 +1633,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1637,10 +1644,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1648,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -1659,10 +1666,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1670,10 +1677,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1681,10 +1688,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>33</v>
       </c>
@@ -1692,10 +1699,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -1703,10 +1710,10 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>35</v>
       </c>
@@ -1714,10 +1721,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>36</v>
       </c>
@@ -1725,10 +1732,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -1736,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>38</v>
       </c>
@@ -1747,10 +1754,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>39</v>
       </c>
@@ -1758,10 +1765,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>40</v>
       </c>
@@ -1769,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -1780,10 +1787,10 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -1791,10 +1798,10 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>43</v>
       </c>
@@ -1802,10 +1809,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>44</v>
       </c>
@@ -1813,10 +1820,10 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>45</v>
       </c>
@@ -1824,10 +1831,10 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>46</v>
       </c>
@@ -1835,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>47</v>
       </c>
@@ -1846,10 +1853,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>48</v>
       </c>
@@ -1857,10 +1864,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>49</v>
       </c>
@@ -1868,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>50</v>
       </c>
@@ -1879,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>51</v>
       </c>
@@ -1890,10 +1897,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -1901,10 +1908,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>53</v>
       </c>
@@ -1912,10 +1919,10 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>54</v>
       </c>
@@ -1923,10 +1930,10 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>55</v>
       </c>
@@ -1934,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>56</v>
       </c>
@@ -1945,10 +1952,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>57</v>
       </c>
@@ -1956,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>58</v>
       </c>
@@ -1967,10 +1974,10 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>59</v>
       </c>
@@ -1978,10 +1985,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>60</v>
       </c>
@@ -1989,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>61</v>
       </c>
@@ -2000,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>62</v>
       </c>
@@ -2011,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>63</v>
       </c>
@@ -2022,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>64</v>
       </c>
@@ -2033,10 +2040,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>65</v>
       </c>
@@ -2044,10 +2051,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>66</v>
       </c>
@@ -2055,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>67</v>
       </c>
@@ -2066,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>68</v>
       </c>
@@ -2077,10 +2084,10 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>69</v>
       </c>
@@ -2088,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>70</v>
       </c>
@@ -2099,10 +2106,10 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>71</v>
       </c>
@@ -2110,10 +2117,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>72</v>
       </c>
@@ -2121,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>73</v>
       </c>
@@ -2132,10 +2139,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>74</v>
       </c>
@@ -2143,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>75</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/檢查JS用_H5.xlsx
+++ b/檢查JS用_H5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\統計碼檢查用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -723,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roger4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/userCenter/manageIcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,6 +746,10 @@
   </si>
   <si>
     <t>/userCenter/qqPayOffline?onlinePayType=9</t>
+  </si>
+  <si>
+    <t>yanting4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1082,18 +1082,18 @@
   <dimension ref="B1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L1" t="s">
         <v>194</v>
@@ -1119,7 +1119,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>89</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>90</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>98</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -1424,10 +1424,10 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>100</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>101</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>102</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>103</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>104</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1501,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>16</v>
       </c>
@@ -1512,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -1523,10 +1523,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1534,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1545,10 +1545,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>35</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>38</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>40</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>43</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>44</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>45</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>46</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>47</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>49</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>50</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>51</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>53</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>55</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>56</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>57</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>58</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>59</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>60</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>61</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>62</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>65</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>66</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>67</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>68</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>69</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>71</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>72</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>73</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>74</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>75</v>
       </c>

--- a/檢查JS用_H5.xlsx
+++ b/檢查JS用_H5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\JSCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="202">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,10 +719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qwe123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/userCenter/manageIcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,10 +742,6 @@
   </si>
   <si>
     <t>/userCenter/qqPayOffline?onlinePayType=9</t>
-  </si>
-  <si>
-    <t>yanting4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1079,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M96"/>
+  <dimension ref="B1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1085,7 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1109,17 +1101,11 @@
       <c r="J1" t="s">
         <v>193</v>
       </c>
-      <c r="K1" t="s">
-        <v>203</v>
-      </c>
       <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1127,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1138,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1160,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1196,7 +1182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1218,7 +1204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1229,7 +1215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1240,7 +1226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1251,7 +1237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1262,7 +1248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1273,7 +1259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -1424,7 +1410,7 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -1490,7 +1476,7 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1501,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1512,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1534,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1545,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
